--- a/Documents/Team Details.xlsx
+++ b/Documents/Team Details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\The Tree\Semicolons\Minor 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AnalysisofRubiksCubeSolvingAlgorithm\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B2657-F7F9-4B84-9828-613C6B76FCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C1ABEE-3020-4555-8C57-8CE90FACFA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,12 +483,12 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="5" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="4" customWidth="1"/>

--- a/Documents/Team Details.xlsx
+++ b/Documents/Team Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AnalysisofRubiksCubeSolvingAlgorithm\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C1ABEE-3020-4555-8C57-8CE90FACFA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509B341-A9DC-4EA7-911A-ED7248DC2D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>S.No.</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Bikram Pratim Bhuyan</t>
+  </si>
+  <si>
+    <t>Developer &amp; Version Control</t>
+  </si>
+  <si>
+    <t>Developer &amp; Documentation</t>
+  </si>
+  <si>
+    <t>Developer &amp; Researcher</t>
+  </si>
+  <si>
+    <t>Developer &amp; Team Leader</t>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -537,7 +549,9 @@
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
@@ -555,10 +569,12 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -574,10 +590,10 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -593,15 +609,16 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H3:H6"/>
+    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Documents/Team Details.xlsx
+++ b/Documents/Team Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AnalysisofRubiksCubeSolvingAlgorithm\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509B341-A9DC-4EA7-911A-ED7248DC2D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641A5A0-E361-4EDD-932D-A5E1D9F0973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
